--- a/iGEM simulation environment/GEMs/modelMsi.xlsx
+++ b/iGEM simulation environment/GEMs/modelMsi.xlsx
@@ -4221,7 +4221,7 @@
     <t>biomassMsi</t>
   </si>
   <si>
-    <t>0.5621 L-Alanine[s] + 0.3237 L-Arginine[s] + 0.2638 L-Asparagine[s] + 0.2638 L-Aspartate[s] + 50.2 ATP[s] + 0.1002 L-Cysteine[s] + 0.0331 dATP[s] + 0.0215 dGTP[s] + 0.288 L-Glutamine[s] + 0.288 L-Glutamate[s] + 0.6704 Glycine[s] + 0.2222 GTP[s] + 50.2 H2O[s] + 0.3179 L-Isoleucine[s] + 0.493 L-Leucine[s] + 0.3755 L-Lysine[s] + 0.1682 L-Methionine[s] + 0.2027 L-Phenylalanine[s] + 0.2419 L-Proline[s] + 0.2361 L-Serine[s] + 0.2776 L-Threonine[s] + 0.1509 L-Tyrosine[s] + 0.4631 L-Valine[s] =&gt; 50.2 ADP[s] + 0.5 Methane[s] + 50.2 Phosphate[s] + Biomass_msi[s]</t>
+    <t>0.5621 L-Alanine[s] + 0.3237 L-Arginine[s] + 0.2638 L-Asparagine[s] + 0.2638 L-Aspartate[s] + 50.2 ATP[s] + 0.1002 L-Cysteine[s] + 0.0331 dATP[s] + 0.0215 dGTP[s] + 0.288 L-Glutamine[s] + 0.288 L-Glutamate[s] + 0.6704 Glycine[s] + 0.2222 GTP[s] + 50.2 H2O[s] + 0.3179 L-Isoleucine[s] + 0.493 L-Leucine[s] + 0.3755 L-Lysine[s] + 0.1682 L-Methionine[s] + 0.2027 L-Phenylalanine[s] + 0.2419 L-Proline[s] + 0.2361 L-Serine[s] + 0.2776 L-Threonine[s] + 0.1509 L-Tyrosine[s] + 0.4631 L-Valine[s] =&gt; 50.2 ADP[s] + 50.2 Phosphate[s] + Biomass_msi[s]</t>
   </si>
   <si>
     <t>UNCONSTRAINED</t>
@@ -17526,7 +17526,7 @@
         <v>-1.0</v>
       </c>
       <c r="H419" t="n" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L419" t="s" s="1">
         <v>1265</v>
